--- a/assets/analysis/parameter_variation/predator_creation_energy_threshold/predator_creation_energy_treshold.xlsx
+++ b/assets/analysis/parameter_variation/predator_creation_energy_threshold/predator_creation_energy_treshold.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameters_variation" sheetId="1" state="visible" r:id="rId2"/>
@@ -1845,11 +1845,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="23087040"/>
-        <c:axId val="32922687"/>
+        <c:axId val="54038085"/>
+        <c:axId val="53786421"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23087040"/>
+        <c:axId val="54038085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1881,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32922687"/>
+        <c:crossAx val="53786421"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1889,7 +1889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32922687"/>
+        <c:axId val="53786421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +1928,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23087040"/>
+        <c:crossAx val="54038085"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,11 +2328,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="84008742"/>
-        <c:axId val="24516912"/>
+        <c:axId val="35410172"/>
+        <c:axId val="29866133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84008742"/>
+        <c:axId val="35410172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2364,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24516912"/>
+        <c:crossAx val="29866133"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2372,7 +2372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24516912"/>
+        <c:axId val="29866133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84008742"/>
+        <c:crossAx val="35410172"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2821,11 +2821,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="69751026"/>
-        <c:axId val="98232744"/>
+        <c:axId val="43803597"/>
+        <c:axId val="14408701"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69751026"/>
+        <c:axId val="43803597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2857,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98232744"/>
+        <c:crossAx val="14408701"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2865,7 +2865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98232744"/>
+        <c:axId val="14408701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +2904,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69751026"/>
+        <c:crossAx val="43803597"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,11 +3166,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="31611910"/>
-        <c:axId val="56671189"/>
+        <c:axId val="36541525"/>
+        <c:axId val="79686811"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31611910"/>
+        <c:axId val="36541525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,7 +3202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56671189"/>
+        <c:crossAx val="79686811"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3210,7 +3210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56671189"/>
+        <c:axId val="79686811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3249,7 +3249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31611910"/>
+        <c:crossAx val="36541525"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3797,11 +3797,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58952795"/>
-        <c:axId val="59401838"/>
+        <c:axId val="4718962"/>
+        <c:axId val="72931060"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58952795"/>
+        <c:axId val="4718962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3833,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59401838"/>
+        <c:crossAx val="72931060"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +3841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59401838"/>
+        <c:axId val="72931060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +3880,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58952795"/>
+        <c:crossAx val="4718962"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4280,11 +4280,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="20079262"/>
-        <c:axId val="28695822"/>
+        <c:axId val="22878040"/>
+        <c:axId val="70101781"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20079262"/>
+        <c:axId val="22878040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4316,7 +4316,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28695822"/>
+        <c:crossAx val="70101781"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4324,7 +4324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28695822"/>
+        <c:axId val="70101781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,7 +4363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20079262"/>
+        <c:crossAx val="22878040"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4763,11 +4763,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="48600620"/>
-        <c:axId val="57117383"/>
+        <c:axId val="7877169"/>
+        <c:axId val="66045680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48600620"/>
+        <c:axId val="7877169"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57117383"/>
+        <c:crossAx val="66045680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4807,7 +4807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57117383"/>
+        <c:axId val="66045680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,7 +4846,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48600620"/>
+        <c:crossAx val="7877169"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4944,10 +4944,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.122207415536568"/>
-          <c:y val="0.33699847935431"/>
-          <c:w val="0.857098063808105"/>
-          <c:h val="0.593636682652942"/>
+          <c:x val="0.122210913645972"/>
+          <c:y val="0.336920917173608"/>
+          <c:w val="0.857042198387223"/>
+          <c:h val="0.593589143659336"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5369,11 +5369,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="47910718"/>
-        <c:axId val="69744738"/>
+        <c:axId val="29244602"/>
+        <c:axId val="71731738"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47910718"/>
+        <c:axId val="29244602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5405,7 +5405,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69744738"/>
+        <c:crossAx val="71731738"/>
         <c:crossesAt val="7"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5413,7 +5413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69744738"/>
+        <c:axId val="71731738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5452,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47910718"/>
+        <c:crossAx val="29244602"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5515,9 +5515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5526,7 +5526,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="438120" y="2791800"/>
-        <a:ext cx="4569840" cy="2642760"/>
+        <a:ext cx="4570560" cy="2642400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5545,9 +5545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>470880</xdr:colOff>
+      <xdr:colOff>470520</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5556,7 +5556,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="476280" y="5698800"/>
-        <a:ext cx="4503240" cy="3042360"/>
+        <a:ext cx="4503960" cy="3042000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5575,9 +5575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>281520</xdr:colOff>
+      <xdr:colOff>281160</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5585,8 +5585,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5339160" y="6272280"/>
-        <a:ext cx="4434480" cy="2467080"/>
+        <a:off x="5341680" y="6272280"/>
+        <a:ext cx="4440240" cy="2466720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5605,9 +5605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480600</xdr:colOff>
+      <xdr:colOff>480240</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5616,7 +5616,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="495360" y="9026640"/>
-        <a:ext cx="4493880" cy="2642400"/>
+        <a:ext cx="4494600" cy="2642040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5635,9 +5635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>308880</xdr:colOff>
+      <xdr:colOff>308520</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5645,8 +5645,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5261040" y="9026640"/>
-        <a:ext cx="4539960" cy="2642400"/>
+        <a:off x="5262120" y="9026640"/>
+        <a:ext cx="4547160" cy="2642040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5665,9 +5665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>464400</xdr:colOff>
+      <xdr:colOff>464040</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5676,7 +5676,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="513000" y="11761560"/>
-        <a:ext cx="4460040" cy="2638800"/>
+        <a:ext cx="4460760" cy="2638440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5695,9 +5695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>451800</xdr:colOff>
+      <xdr:colOff>451440</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5705,8 +5705,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5339160" y="12029400"/>
-        <a:ext cx="4604760" cy="2642400"/>
+        <a:off x="5341680" y="12029400"/>
+        <a:ext cx="4610520" cy="2642040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5725,9 +5725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>441360</xdr:colOff>
+      <xdr:colOff>441000</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5735,8 +5735,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10324800" y="5689440"/>
-        <a:ext cx="4592160" cy="3077280"/>
+        <a:off x="10334880" y="5689440"/>
+        <a:ext cx="4597920" cy="3076920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5757,10 +5757,10 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="1" sqref="A26:F27 F42"/>
+      <selection pane="topLeft" activeCell="F42" activeCellId="1" sqref="B2:M15 F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1004" style="0" width="11.52"/>
@@ -6057,7 +6057,7 @@
       <c r="A36" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="b">
+      <c r="B36" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="A37" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="b">
+      <c r="B37" s="4" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6208,11 +6208,11 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="A26:F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="B2:M15 F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1008" style="0" width="11.52"/>
@@ -6811,13 +6811,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A26:F27 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="941" min="926" style="0" width="11.57"/>
@@ -6829,575 +6829,69 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>2185.2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2446.5</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>417.7</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>676.1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>815.1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1096.2</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1407.3</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1712.7</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1333.6</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1873</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>2960.1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1773.2</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1949.4</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>453.5</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>653.3</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>734.4</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1065.5</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1290.7</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1501.8</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1183.2</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1543.6</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>2320.3</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>47657.4</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>91712.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>228.9</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>69.1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>-234.4</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>-443.7</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>-694.8</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>-1063.7</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>-1378</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>-26.2</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>-38.6</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>-63.9</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>119243.2</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>222225.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1576.5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1868.8</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>2204.8</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2160.2</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2469.2</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>2822.9</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>2950.1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>75.9</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>-6032</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>-6172.3</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-781.8</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>-1280.7</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>-2063.8</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>-2396.6</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>-3067.8</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>-3978.7</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>-4624.1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>-75.7</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>-102.9</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>-168.7</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2.602</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3.792</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0.048</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0.021</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.246</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>2.619</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0.048</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.261</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>116.6</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>238.6</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>276.8</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>320.9</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>335.1</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>119.3</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>65.1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>74.1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>99.9</v>
       </c>
     </row>
   </sheetData>
